--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H2">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I2">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J2">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>4.573929196434889</v>
+        <v>0.1340052720631111</v>
       </c>
       <c r="R2">
-        <v>41.165362767914</v>
+        <v>1.206047448568</v>
       </c>
       <c r="S2">
-        <v>0.09603443568388095</v>
+        <v>0.01346694008325273</v>
       </c>
       <c r="T2">
-        <v>0.09603443568388098</v>
+        <v>0.01346694008325273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H3">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I3">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J3">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>12.884494165466</v>
+        <v>0.466384249948</v>
       </c>
       <c r="R3">
-        <v>115.960447489194</v>
+        <v>4.197458249532</v>
       </c>
       <c r="S3">
-        <v>0.2705234543676868</v>
+        <v>0.04686956455612052</v>
       </c>
       <c r="T3">
-        <v>0.2705234543676868</v>
+        <v>0.04686956455612052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H4">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I4">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J4">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>8.922708043514223</v>
+        <v>0.2314721201044444</v>
       </c>
       <c r="R4">
-        <v>80.30437239162801</v>
+        <v>2.08324908094</v>
       </c>
       <c r="S4">
-        <v>0.1873416038881423</v>
+        <v>0.02326192935843558</v>
       </c>
       <c r="T4">
-        <v>0.1873416038881423</v>
+        <v>0.02326192935843558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.399384</v>
       </c>
       <c r="I5">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J5">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>0.6733291626479999</v>
+        <v>0.544983519792</v>
       </c>
       <c r="R5">
-        <v>6.059962463832</v>
+        <v>4.904851678128</v>
       </c>
       <c r="S5">
-        <v>0.01413725123134867</v>
+        <v>0.05476844525894878</v>
       </c>
       <c r="T5">
-        <v>0.01413725123134867</v>
+        <v>0.05476844525894878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.399384</v>
       </c>
       <c r="I6">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J6">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
         <v>1.896729331608</v>
@@ -818,10 +818,10 @@
         <v>17.070563984472</v>
       </c>
       <c r="S6">
-        <v>0.03982381956153045</v>
+        <v>0.1906129502940984</v>
       </c>
       <c r="T6">
-        <v>0.03982381956153046</v>
+        <v>0.1906129502940984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.399384</v>
       </c>
       <c r="I7">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J7">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>1.313513890896</v>
+        <v>0.9413696103599999</v>
       </c>
       <c r="R7">
-        <v>11.821625018064</v>
+        <v>8.472326493240001</v>
       </c>
       <c r="S7">
-        <v>0.02757860033632722</v>
+        <v>0.09460350286026471</v>
       </c>
       <c r="T7">
-        <v>0.02757860033632723</v>
+        <v>0.09460350286026473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H8">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N8">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O8">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P8">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q8">
-        <v>3.010429626695888</v>
+        <v>0.9239751113517777</v>
       </c>
       <c r="R8">
-        <v>27.093866640263</v>
+        <v>8.315776002165999</v>
       </c>
       <c r="S8">
-        <v>0.06320712410483233</v>
+        <v>0.09285543226337355</v>
       </c>
       <c r="T8">
-        <v>0.06320712410483235</v>
+        <v>0.09285543226337353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H9">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>42.742233</v>
       </c>
       <c r="O9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q9">
-        <v>8.480206250446999</v>
+        <v>3.215749892851</v>
       </c>
       <c r="R9">
-        <v>76.32185625402299</v>
+        <v>28.941749035659</v>
       </c>
       <c r="S9">
-        <v>0.1780508151239789</v>
+        <v>0.3231687116709502</v>
       </c>
       <c r="T9">
-        <v>0.1780508151239789</v>
+        <v>0.3231687116709502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H10">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N10">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q10">
-        <v>5.872671720736221</v>
+        <v>1.596015400406111</v>
       </c>
       <c r="R10">
-        <v>52.854045486626</v>
+        <v>14.364138603655</v>
       </c>
       <c r="S10">
-        <v>0.1233028957022723</v>
+        <v>0.1603925236545556</v>
       </c>
       <c r="T10">
-        <v>0.1233028957022723</v>
+        <v>0.1603925236545556</v>
       </c>
     </row>
   </sheetData>
